--- a/src/2014_2019_census_data/ACSST5Y2014.S1701-2021-03-24T223501.xlsx
+++ b/src/2014_2019_census_data/ACSST5Y2014.S1701-2021-03-24T223501.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="dhaya"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23256" windowHeight="10392" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1616679179" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1616679179" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1616679179"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1616679179"/>
+      <pm:revision xmlns:pm="smNativeData" day="0" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="0" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="0" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="0"/>
     </ext>
   </extLst>
 </workbook>
@@ -5362,7 +5362,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -5370,7 +5370,22 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616679179" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="0" ulstyle="none">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="0" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5403,13 +5418,13 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616679179"/>
+          <pm:border xmlns:pm="smNativeData" id="0"/>
         </ext>
       </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5426,9 +5441,19 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1616679179" count="1">
-        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      <pm:charStyles xmlns:pm="smNativeData" id="0" count="1">
+        <pm:charStyle name="Normal" fontId="1" Id="1"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="0" count="8">
+        <pm:color name="Periwinkle" rgb="9999FF"/>
+        <pm:color name="Plum" rgb="993366"/>
+        <pm:color name="Ivory" rgb="FFFFCC"/>
+        <pm:color name="Bright Cyan" rgb="CCFFFF"/>
+        <pm:color name="Deep Purple" rgb="660066"/>
+        <pm:color name="Coral" rgb="FF8080"/>
+        <pm:color name="Ocean Blue" rgb="0066CC"/>
+        <pm:color name="Ice Blue" rgb="CCCCFF"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -5690,13 +5715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD55"/>
+  <dimension ref="A1:BO55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="1" width="48.963964" customWidth="1" style="1"/>
     <col min="2" max="2" width="36.162162" customWidth="1" style="1"/>
@@ -5765,10 +5790,10 @@
     <col min="65" max="65" width="23.045045" customWidth="1" style="1"/>
     <col min="66" max="66" width="34.747748" customWidth="1" style="1"/>
     <col min="67" max="67" width="41.261261" customWidth="1" style="1"/>
-    <col min="68" max="16384" width="10.000000" style="1"/>
+    <col min="68" max="256" width="10.000000" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" spans="1:67">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15353,25 +15378,25 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616679179" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="0" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
   <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown"/>
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616679179" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616679179" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1616679179" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1616679179" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="0" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="0" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="0" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="0" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616679179" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="0" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
